--- a/life_assist_dm/user_information/문종술.xlsx
+++ b/life_assist_dm/user_information/문종술.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,12 +508,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>플라스틱 컵</t>
+          <t>유리컵</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>서랍</t>
+          <t>책상</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -534,12 +534,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>노란컵</t>
+          <t>빨간 컵</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>책상</t>
+          <t>서랍</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -560,15 +560,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>유리컵</t>
+          <t>물</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>냉장고</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>안</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>rule-based</t>
@@ -582,11 +586,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46079</v>
+        <v>46080</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>빨간컵</t>
+          <t>가방</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,7 +598,11 @@
           <t>책상</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>위</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>rule-based</t>
@@ -607,15 +615,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" s="2" t="n">
+        <v>46080</v>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>물</t>
+          <t>연필</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>필통</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -623,8 +633,482 @@
           <t>안</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>안</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>수건</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>살로몬 신발</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>신발장</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>핸드폰</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>침대 위</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>사용자 발화</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>신발</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>신발 어디있어?.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>사용자 발화</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>필통</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>가방</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>종이컵</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>아식스 신발</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>아식스 신발은 없어</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>사용자 발화</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>포도</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>냉장고 신선칸</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>안</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>사과도</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>냉장고 신선칸</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>안</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>생선</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>냉장고 신선칸</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>안</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>녹색 플라스틱컵</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>책장</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>46080.60626157407</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>물통</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>거실 책상</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>위</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>46080.64530092593</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>충전기</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>밑</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>46080.64530092593</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>침대 밑</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>충전기</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>46080.65388888889</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>치약</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>화장대</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>46080.65388888889</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>칫솔</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>화장실</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>rule-based</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>user.물건</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -637,7 +1121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,6 +1170,228 @@
           <t>엔티티타입</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>혈압약</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>아침</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>식후</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>약</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>정신과</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>아침</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>약</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:50:05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>두통약</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>저녁</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>식후</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>약</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>비타민</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>알</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>아침/저녁</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>식후</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>02월 26일~ 03월 01일</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>건강보조제</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>홍삼</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>아침/점심/저녁</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>식전</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>일주일</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>건강보조제</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>수면제</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>알</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>저녁</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>취침 전</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>한 달</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>약</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>유산균</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>포</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>아침</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>공복</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -698,7 +1404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +1443,174 @@
           <t>엔티티타입</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>병원</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>오전 11시</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>이쁘니 피부과</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>미팅</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>오후 5시</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>일정</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>헬스장</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>오후 2시</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>탄탄헬스장</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>일</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>친구랑 약속</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>일정</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>밥약속</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>오전 9시</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>일정</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>병원</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14시</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>탄탄 정형외과</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-03-02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>가족 모임</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>아침 9시</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>네네치킨</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -749,7 +1623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,6 +1655,151 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>엔티티타입</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>강아지</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>동구</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>가족</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>동생</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>박보검</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>가족</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>엄마</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>송혜교</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>가족</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>아빠</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>주성치</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>가족</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>친구</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>권서연</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>친구</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>친구</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">다니엘 </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>친구</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>조카</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>가족</t>
         </is>
       </c>
     </row>
@@ -795,7 +1814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +1841,72 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>엔티티타입</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>중립</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>인사 표현</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>감정</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>우울</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>"우울한 상황"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>감정</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:12:53</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>우울</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>원인 불명</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>감정</t>
         </is>
       </c>
     </row>
@@ -836,7 +1921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +1953,79 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>엔티티타입</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>아침</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>밥</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>식사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>점심</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>스테이크</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>식사</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>아침</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>미역국</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>식사</t>
         </is>
       </c>
     </row>
@@ -882,7 +2040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,13 +2083,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-26 11:09:01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2026-02-27 14:07:11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>나이</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>8살</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -940,27 +2102,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2026-02-26 11:10:43</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>사용자 발화</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>사용자</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -973,7 +2119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,17 +2147,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08:00:23</t>
+          <t>14:17:15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q: 물 가져와 | A: 물의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+          <t>Q: 유리컵 어디있어? | A: 해당 물건의 위치는 아직 기록되어 있지 않아요.</t>
         </is>
       </c>
     </row>
@@ -1023,12 +2169,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11:07:10</t>
+          <t>14:17:44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q: 물 가져와 | A: ＇물＇을(를) 냉장고 안에서 가져오겠습니다. [Robot Command: {＂action＂: ＂deliver＂, ＂target＂: ＂water＂, ＂location＂: ＂inside refrigerator＂, ＂original＂: ＂Please deliver water from inside refrigerator＂}]</t>
+          <t>Q: 컵 어디있어? | A: 해당 물건의 위치는 아직 기록되어 있지 않아요.</t>
         </is>
       </c>
     </row>
@@ -1040,12 +2186,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:07:31</t>
+          <t>14:17:56</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q: 물 어디있는지 몰라? | A: 물은 냉장고 안에 있어요.</t>
+          <t>Q: 물 어디있는지 몰라? | A: 해당 물건의 위치는 아직 기록되어 있지 않아요.</t>
         </is>
       </c>
     </row>
@@ -1057,12 +2203,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>14:18:09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q: 물 위치 알려줘 | A: 물은 냉장고 안에 있어요.</t>
+          <t>Q: 컵은 선반에 있어 | A: ＇컵＇의 위치를 ＇선반＇로 저장했어요.</t>
         </is>
       </c>
     </row>
@@ -1074,12 +2220,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11:07:58</t>
+          <t>14:18:22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q: 물 가져와 | A: ＇물＇을(를) 냉장고 안에서 가져오겠습니다. [Robot Command: {＂action＂: ＂deliver＂, ＂target＂: ＂water＂, ＂location＂: ＂inside refrigerator＂, ＂original＂: ＂Please deliver water from inside refrigerator＂}]</t>
+          <t>Q: 유리컵은 책상에 있어 | A: ＇유리컵＇의 위치를 ＇책상＇로 저장했어요.</t>
         </is>
       </c>
     </row>
@@ -1091,12 +2237,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11:08:15</t>
+          <t>14:18:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q: 컵은 선반에 있어 | A: ＇컵＇의 위치를 ＇선반＇로 저장했어요.</t>
+          <t>Q: 빨간 컵은 서랍에 있어 | A: ＇빨간 컵＇의 위치를 ＇서랍＇로 저장했어요.</t>
         </is>
       </c>
     </row>
@@ -1108,12 +2254,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11:08:30</t>
+          <t>14:18:41</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q: 플라스틱 컵은 서랍에 있어 | A: ＇플라스틱 컵＇의 위치를 ＇서랍＇로 저장했어요.</t>
+          <t>Q: 물은 냉장고 안에 있어 | A: ＇물＇의 위치를 ＇냉장고 안＇로 저장했어요.</t>
         </is>
       </c>
     </row>
@@ -1125,12 +2271,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11:08:40</t>
+          <t>14:19:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q: 빨간 컵 가져와 | A: 어떤 컵을(를) 드릴까요? 플라스틱 컵, 컵이(가) 있어요.</t>
+          <t>Q: 유리컵 어디있어? | A: 유리컵은 책상에 있어요.</t>
         </is>
       </c>
     </row>
@@ -1142,12 +2288,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11:09:01</t>
+          <t>14:20:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q: 빨간 컵은 서랍에 있어 | A: 네, ＇정보＇를 저장했어요.</t>
+          <t>Q: 컵 어디있어? | A: 컵은 선반에 있어요.</t>
         </is>
       </c>
     </row>
@@ -1159,12 +2305,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11:09:31</t>
+          <t>14:21:15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q: 빨간컵 어디있어? | A: 컵은 선반에 있어요.</t>
+          <t>Q: 빨간 컵 어디있어? | A: 빨간 컵은 서랍에 있어요.</t>
         </is>
       </c>
     </row>
@@ -1176,12 +2322,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11:09:54</t>
+          <t>14:21:26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q: 빨간컵 어디있어? | A: 컵은 선반에 있어요.</t>
+          <t>Q: 물 가져와 | A: ＇물＇을(를) 냉장고 안에서 가져오겠습니다. [Robot Command: {＂action＂: ＂deliver＂, ＂target＂: ＂water＂, ＂location＂: ＂inside refrigerator＂, ＂original＂: ＂Please deliver water from inside refrigerator＂}]</t>
         </is>
       </c>
     </row>
@@ -1193,12 +2339,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11:10:02</t>
+          <t>14:59:19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q: 컵 어디있어? | A: 컵은 선반에 있어요.</t>
+          <t>Q: 물 어디있어? | A: 물은 냉장고 안에 있어요.</t>
         </is>
       </c>
     </row>
@@ -1210,12 +2356,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11:10:08</t>
+          <t>14:59:32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q: 컵갖다줘 | A: 어떤 컵을(를) 드릴까요? 플라스틱 컵, 컵이(가) 있어요.</t>
+          <t>Q: 물 가져와. | A: ＇물＇을(를) 냉장고 안에서 가져오겠습니다. [Robot Command: {＂action＂: ＂deliver＂, ＂target＂: ＂water＂, ＂location＂: ＂inside refrigerator＂, ＂original＂: ＂Please deliver water from inside refrigerator＂}]</t>
         </is>
       </c>
     </row>
@@ -1227,12 +2373,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11:10:27</t>
+          <t>14:59:44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q: 빨간컵갖다줘 | A: 빨간컵의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+          <t>Q: 컵 어디있어? | A: 어떤 컵을(를) 말씀하시는 건가요? 컵, 유리컵, 빨간 컵이(가) 있어요.</t>
         </is>
       </c>
     </row>
@@ -1244,12 +2390,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11:10:43</t>
+          <t>15:00:06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q: 빨간컵은 책상에 있어 | A: 네, ＇정보＇를 저장했어요.</t>
+          <t>Q: 그냥 컵 | A: ＂그냥 컵＂이라는 표현은 특정한 의미나 맥락 없이 단순히 컵을 언급하는 것 같습니다. 컵은 일반적으로 음료를 담는 용기로, 다양한 재질(유리, 플라스틱, 도자기 등)과 디자인이 있습니다. 추가적인 정보나 질문이 필요하시면 말씀해 주세요!</t>
         </is>
       </c>
     </row>
@@ -1261,12 +2407,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11:10:51</t>
+          <t>15:01:40</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q: 노란컵은 책상에 있어 | A: ＇노란컵＇의 위치를 ＇책상＇로 저장했어요.</t>
+          <t>Q: 컵 어디있어? | A: 어떤 컵을(를) 말씀하시는 건가요? 컵, 유리컵, 빨간 컵이(가) 있어요.</t>
         </is>
       </c>
     </row>
@@ -1278,12 +2424,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11:11:00</t>
+          <t>15:01:53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q: 유리컵은 책상에 있어 | A: ＇유리컵＇의 위치를 ＇책상＇로 저장했어요.</t>
+          <t>Q: 컵 | A: 컵은 음료를 담아 마시는 용기로, 보통 손잡이가 있는 형태로 만들어져 있습니다. 다양한 재질(예: 도자기, 유리, 플라스틱 등)과 디자인이 있으며, 일상생활에서 널리 사용됩니다. 컵은 주로 차, 커피, 주스 등의 음료를 마시는 데 사용됩니다. 추가로 궁금한 점이 있으면 말씀해 주세요!</t>
         </is>
       </c>
     </row>
@@ -1295,12 +2441,2732 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11:11:07</t>
+          <t>15:07:48</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q: 빨간컵은 책상에 있어 | A: ＇빨간컵＇의 위치를 ＇책상＇로 저장했어요.</t>
+          <t>Q: 컵 어디있어? | A: 어떤 컵을(를) 말씀하시는 건가요? 컵, 유리컵, 빨간 컵이(가) 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15:08:11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Q: 컵 가져다줘. | A: 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>15:10:59</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Q: 컵 가져다줘. | A: 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>15:14:59</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Q: 컵 가져다줘. | A: 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15:18:09</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Q: 컵 가져다줘. | A: 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>15:18:29</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Q: 컵 가져다줘. | A: 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15:19:02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Q: 물가져와. | A: 물을(를) 냉장고 안에서 가져오겠습니다. [Robot: Please deliver water from inside refrigerator]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15:21:20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Q: 물가져와. | A: 물을(를) 냉장고 안에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15:21:33</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Q: 컵 가져다줘. | A: 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>15:28:25</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Q: 플라스틱 컵 갖다줘 | A: 플라스틱 컵의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>15:28:56</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Q: 플라스틱 컵 위치는? | A: 어떤 컵을(를) 말씀하시는 건가요? 컵, 플라스틱 컵이(가) 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15:29:23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Q: 신라면이랑 안성탕면 선반에 있어 | A: 말씀하신 내용을 기억해뒀습니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>15:29:36</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Q: 신라면 어디있어? | A: 해당 물건의 위치는 아직 기록되어 있지 않아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>15:30:36</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Q: 플라스틱 컵이랑 유리컵 갖다줘 | A: 플라스틱 컵, location: null의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>15:31:05</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Q: 플라스틱 컵이랑 유리컵 갖다줘 | A: 플라스틱 컵, location: null의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>15:43:17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Q: 안녕 | A: 안녕하세요! 오늘 하루는 어떠신가요? 함께 이야기 나눌 수 있어서 기쁩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15:43:24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Q: 내 이름은? | A: 문종술입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>15:43:54</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Q: 아침에는 비타민, 점심에는 약1, 저녁에는 약3을 먹어야해 | A: ＇점심에는＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15:44:11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Q: 내 복약정보는? | A: 네, 기억하고 있어요! 아침/점심/저녁에 점심에는 드시고 계시죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15:46:07</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Q: 컵 갖다줘 | A: 플라스틱 컵, 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>15:46:16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Q: 빨간컵 갖다줘 | A: 빨간컵의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>15:46:24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Q: 빨간 컵 갖다줘 | A: 빨간 컵을(를) 서랍에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15:51:28</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Q: 아침점심저녁에 혈압약 식후에 먹어야 돼. | A: ＇혈압약＇ 복용 정보를 저장했어요. ＇혈압약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15:52:06</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Q: 내일 오후 5시에 미팅있어. 일정 저장해둬. | A: 미팅 일정을 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>15:52:36</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Q: 내 강아지 이름은 동구 | A: ＇강아지＇ ＇동구＇의 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>15:52:59</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Q: 내 동생 이름은 박보검 | A: ＇동생＇ ＇박보검＇의 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16:02:30</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 죄송하지만, 내일 일정에 대한 정보는 알 수 없습니다. 개인적인 일정이나 계획은 사용자에게만 해당되는 정보이기 때문에 확인할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16:02:56</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 죄송하지만, 내일 일정에 대한 정보를 알 수 없습니다. 개인적인 일정이나 캘린더에 대한 정보는 제공할 수 없습니다. 필요한 경우 직접 확인해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16:06:37</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 죄송하지만, 내일 일정에 대한 정보는 알 수 없습니다. 개인적인 일정이나 캘린더에 대한 접근이 없기 때문입니다. 필요한 경우 직접 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16:09:26</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>16:13:04</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16:15:35</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16:18:44</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정이 있어요. 2026-02-27 오후 5시에 미팅 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16:19:42</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Q: 병원 어디? | A: 병원 일정은 이쁘니 피부과에 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16:20:07</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Q: 금요일  일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정이 있어요. 2026-02-27 오후 5시에 미팅 일정이 있어요. 2026-02-28 오후 2시에 헬스장 일정이 있어요. 2026-03-01 14시에 병원 일정이 있어요. 2026-03-02 아침 9시에 가족 모임 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16:21:38</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 오후 5시에 미팅 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>16:21:43</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Q: 병원 어디? | A: 병원 일정은 이쁘니 피부과에 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>16:21:47</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 오후 5시에 미팅 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16:21:53</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Q: 금요일  일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정이 있어요. 2026-02-27 오후 5시에 미팅 일정이 있어요. 2026-02-28 오후 2시에 헬스장 일정이 있어요. 2026-03-01 14시에 병원 일정이 있어요. 2026-03-02 아침 9시에 가족 모임 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16:28:16</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 오후 5시에 미팅 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>16:28:24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q: 병원 어디? | A: 병원 일정은 이쁘니 피부과에 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>16:28:30</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q: 금요일  일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 오후 5시에 미팅 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>16:29:05</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q: 토요일 일정 알려줘. | A: 2026-02-28 오후 2시에 헬스장 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16:29:28</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q: 나 3월 1일에 일정있어? | A: 2026-03-01 14시에 병원 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>16:29:53</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q: 이번주  일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정이 있어요. 2026-02-27 오후 5시에 미팅 일정이 있어요. 2026-02-28 오후 2시에 헬스장 일정이 있어요. 2026-03-01 14시에 병원 일정이 있어요. 2026-03-02 아침 9시에 가족 모임 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16:32:53</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 오후 5시에 미팅 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16:33:01</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q: 금요일  일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 오후 5시에 미팅 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>16:33:07</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q: 병원 어디? | A: 병원 일정은 이쁘니 피부과에 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>16:33:13</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q: 나 3월 1일에 일정있어? | A: 2026-03-01 14시에 병원 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16:33:18</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q: 이번주  일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 2026-02-27 오후 5시에 미팅 일정, 2026-02-28 오후 2시에 헬스장 일정, 2026-03-01 14시에 병원 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>16:33:39</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q: 다음주  일정 알려줘. | A: 2026-02-27 오전 11시에 병원 일정, 2026-02-27 오후 5시에 미팅 일정, 2026-02-28 오후 2시에 헬스장 일정, 2026-03-01 14시에 병원 일정, 2026-03-02 아침 9시에 가족 모임 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>16:35:54</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q: 다음주  일정 알려줘. | A: 2026-03-02 아침 9시에 가족 모임 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>16:36:33</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Q: 다음주 월요일  일정 알려줘. | A: 2026-03-02 아침 9시에 가족 모임 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16:36:53</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Q: 우리 가족 이름 다 말해봐. | A: 친구의 이름은 권서연이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16:37:43</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Q: 우리 엄마 이름은? | A: 엄마의 이름은 송혜교이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16:37:57</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Q: 아빠 이름 뭔지 알아? | A: 아빠의 이름은 주성치이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16:38:12</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Q: 우리집 강아지 이름 대봐. | A: 친구의 이름은 권서연이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>16:39:06</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Q: 우리 가족 이름 다 말해봐. | A: 가족 이름은 강아지 동구, 동생 박보검, 엄마 송혜교, 아빠 주성치에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>16:39:16</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Q: 내 친구  이름 다 말해봐. | A: 친구의 이름은 권서연이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>16:39:58</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Q: 우리 가족 이름 다 말해봐. | A: 가족 이름은 강아지 동구, 동생 박보검, 엄마 송혜교, 아빠 주성치에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>16:40:02</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Q: 내 친구  이름 다 말해봐. | A: 친구의 이름은 다니엘이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>16:42:44</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Q: 우리 가족 이름 다 말해봐. | A: 가족 이름은 강아지 동구, 동생 박보검, 엄마 송혜교, 아빠 주성치에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>16:42:47</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Q: 내 친구  이름 다 말해봐. | A: 친구 이름은 권서연, 다니엘에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>16:42:52</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Q: 내 친구  이름 다 말해봐. | A: 친구 이름은 권서연, 다니엘에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>16:42:58</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Q: 우리집 강아지 이름 대봐. | A: 친구의 이름은 다니엘이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>16:44:21</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Q: 내 친구  이름 다 말해봐. | A: 친구 이름은 권서연, 다니엘에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>16:44:25</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Q: 우리집 강아지 이름 대봐. | A: 친구의 이름은 다니엘이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>16:48:14</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Q: 우리집 강아지 이름 대봐. | A: 강아지의 이름은 동구에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>16:48:23</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Q: 내 친구  이름 다 말해봐. | A: 친구 이름은 권서연, 다니엘에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>16:48:31</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Q: 우리 가족 이름 다 말해봐. | A: 가족 이름은 강아지 동구, 동생 박보검, 엄마 송혜교, 아빠 주성치에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>16:49:03</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Q: 우리 엄마 이름은? | A: 엄마의 이름은 송혜교이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16:49:45</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Q: 아침 먹고 어떤 약 먹어야 돼? | A: 네, 기억하고 있어요! 아침/저녁에 비타민, 아침에 혈압약, 아침/점심/저녁에 홍삼, 저녁에 수면제, 아침에 유산균 드시고 계시죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>16:50:09</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Q: 자기 전에 뭐먹어야 돼? | A: 자기 전에 가벼운 간식을 먹는 것이 좋습니다. 예를 들어, 바나나, 요거트, 견과류, 또는 오트밀 같은 음식이 좋습니다. 너무 기름지거나 무거운 음식은 피하는 것이 좋습니다. 개인의 소화 능력에 따라 다를 수 있으니 자신에게 맞는 음식을 선택하세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>17:01:24</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Q: 자기 전에 무슨 약 \먹어야 돼? | A: 자기 전에 어떤 약을 먹어야 하는지는 개인의 건강 상태나 필요에 따라 다릅니다. 일반적으로 수면에 도움이 되는 약물은 수면제나 멜라토닌 같은 보충제가 있을 수 있지만, 이러한 약물은 의사와 상담 후에 복용하는 것이 좋습니다. 특정한 증상이나 질병이 있다면, 반드시 전문가와 상담하여 적절한 약을 처방받는 것이 중요합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>17:01:46</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Q: 나 무슨 약 먹어야 돼? | A: 네, 기억하고 있어요! 아침/저녁 식후에 비타민, 아침 식후에 혈압약, 아침/점심/저녁 식전에 홍삼, 저녁 취침 전에 수면제, 아침 공복에 유산균 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>17:02:33</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Q: 수면제는 몇 알  먹어야 돼? | A: 수면제를 복용하는 알 수는 개인의 건강 상태, 약물 종류, 의사의 처방 등에 따라 다릅니다. 따라서 정확한 복용량은 반드시 의사와 상담하여 결정해야 합니다. 자가 판단으로 복용하지 않는 것이 중요합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>17:07:52</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Q: 나 방금 아침밥 먹었는데 무슨 약 먹어야 돼? | A: 네, 기억하고 있어요! 아침/저녁 식후에 비타민, 아침 식후에 혈압약 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>17:08:14</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Q: 나 지금 자기 전인데 무슨 약 먹어야 돼? | A: 네, 기억하고 있어요! 저녁 취침 전에 수면제 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>17:08:53</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Q: 물이랑 빨간 컵 갖다줘. | A: 빨간 컵을(를) 서랍에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>10:41:08</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Q: 나이키 신발은 신발장에 있어. | A: ＇나이키 신발＇의 위치를 ＇신발장＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>10:41:20</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Q: 나이키 신발 가져와. | A: 나이키 신발을(를) 신발장에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>10:41:48</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Q: 살로몬 신발은 신발장에 있어. | A: ＇살로몬 신발＇의 위치를 ＇신발장＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>10:42:07</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Q: 살로몬 신발이랑 나이키 신발 가져와. | A: 나이키 신발을 신발장에서, 살로몬 신발을 신발장에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>10:45:22</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Q: 신발은 현관 앞에 있어. | A: ＇신발＇의 위치를 ＇현관＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10:45:43</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Q: 살로몬 신발이랑 신발 가져와. | A: 살로몬 신발을(를) 신발장에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>10:45:58</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Q: 신발 가지고 와. | A: 나이키 신발, 그냥 신발, 살로몬 신발이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10:47:23</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Q: 아침 먹고 어떤 약 먹어야 돼? | A: 네, 기억하고 있어요! 아침/저녁 식후에 비타민, 아침 식후에 혈압약 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10:47:53</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Q: 아침 식후에 정신과 약 먹어야돼. | A: ＇정신과＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10:48:36</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Q: 아침에 밥 먹고 낫거  정신과 약 먹어야돼. | A: ＇정신과 약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10:49:24</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Q: 살로몬 신발이랑 신발 가져와. | A: 살로몬 신발을 신발장에서, 신발을 현관에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>10:49:31</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Q: 신발 가지고 와. | A: 나이키 신발, 그냥 신발, 살로몬 신발이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>11:18:56</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Q: 신발 가지고 와. | A: 나이키 신발, 그냥 신발, 살로몬 신발이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>11:19:15</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Q: 살로몬 신발 가지고 와. | A: 살로몬 신발을 신발장에서, 신발을 현관에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>11:21:58</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Q: 살로몬 신발 가지고 와. | A: 살로몬 신발을(를) 신발장에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>11:22:04</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Q: 신발 가지고 와. | A: 나이키 신발, 그냥 신발, 살로몬 신발이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>13:35:31</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Q: 플라스틱 컵 가져와. | A: 플라스틱 컵의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>13:35:45</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Q: 플라스틱은 냉장고 위에 있어. | A: 네, 알겠어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>13:42:16</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Q: 플라스틱 컵 가져와. | A: 플라스틱 컵의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>13:42:36</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Q: 유리 컵 가져와. | A: 유리컵을(를) 책상에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>13:42:45</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Q: 컵 가져와. | A: 플라스틱 컵, 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>13:43:04</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Q: 핸드폰 가져와. | A: 핸드폰의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>13:43:48</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Q: 안녕? | A: 안녕하세요! 어떻게 도와드릴까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>13:43:55</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Q: 나 우울해 | A: 그런 기분이 드셨군요. 힘든 시간을 겪고 계신 것 같아 마음이 아픕니다. 당신은 혼자가 아니에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>13:44:31</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Q: 오늘 점심으로 12시에 스테이크 먹었어. | A: 말씀하신 내용을 기억해뒀습니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>13:48:33</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Q: 우리 아빠 이름은?. | A: 아빠의 이름은 주성치이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>13:48:58</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Q: 신발 정리해줘. | A: 신발의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>13:50:18</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Q: 살로몬 신발 ㄱ ㅏ지고 와 | A: 살로몬 신발을(를) 신발장에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>13:51:19</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Q: 녹색 플라스틱컵이 있어? | A: 해당 물건의 위치는 아직 기록되어 있지 않아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>13:51:35</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Q: 녹색 플라스틱컵은 책장에 있던데 | A: ＇녹색 플라스틱컵＇의 위치를 ＇책장＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>13:51:50</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Q: 컵 갖다줘 | A: 플라스틱 컵, 녹색 플라스틱컵, 빨간 컵, 유리컵, 그냥 컵이(가) 있는데 어떤 걸 말씀하시는 걸까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>13:52:31</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Q: 보라색 유리컵 갖다줘 | A: 유리컵을(를) 책상에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>13:53:03</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Q: 치약이랑 칫솔좀 ㄱㅈ다줘 | A: 치약, location: null의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>13:53:49</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Q: 치약 갖다줘 | A: 치약, location: null을(를) 신발장에서 가져오겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>13:54:36</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Q: 수건은 선반, 종이컵은 책상, 칫솔은 서랍에 있어 | A: ＇수건＇의 위치를 ＇선반＇로 저장했어요. ＇종이컵＇의 위치를 ＇책상＇로 저장했어요. ＇칫솔＇의 위치를 ＇서랍＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>13:55:08</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Q: 나 점심에 먹던 약이 뭐더라? | A: 죄송하지만, 어떤 약을 드셨는지 알 수 없습니다. 약의 이름이나 종류에 대한 정보가 필요합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>13:55:29</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Q: 아침에 먹는 약은? | A: 네, 기억하고 있어요! 아침 식후에 혈압약, 아침에 정신과, 아침/저녁 식후에 비타민, 아침/점심/저녁 식전에 홍삼, 아침 공복에 유산균 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>13:55:54</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Q: 저녁에 먹는 약은? | A: 네, 기억하고 있어요! 아침/저녁 식후에 비타민, 아침/점심/저녁 식전에 홍삼, 저녁 취침 전에 수면제 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>13:56:04</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Q: 점심에 먹는 약은? | A: 네, 기억하고 있어요! 아침/점심/저녁 식전에 홍삼 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>13:56:20</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Q: 점심에 먹는 약은? | A: 네, 기억하고 있어요! 아침/점심/저녁 식전에 홍삼 드셔야 해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>13:58:24</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Q: 아식스 신발 갖다줘 | A: 아식스 신발의 위치는 알고 있지 않아요. 알려주시면 기억해둘게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13:59:48</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Q: 아식스 신발은 있어 | A: 말씀하신 내용을 기억해뒀습니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>13:59:57</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Q: 아식스 신발 어디있어? | A: 어떤 신발을(를) 말씀하시는 건가요? 신발, 아식스 신발이(가) 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>14:02:25</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Q: 포도는 냉장고 신선칸 안에 있어 | A: ＇포도＇의 위치를 ＇냉장고 신선칸 안＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>14:02:47</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Q: 사과도는 냉장고 신선칸 안에 있어 | A: ＇사과도＇의 위치를 ＇냉장고 신선칸 안＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>14:02:59</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Q: 생선도 냉장고 신선칸 안에 있어 | A: ＇생선＇의 위치를 ＇냉장고 신선칸 안＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>14:06:36</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Q: 조카가 새로 생겼어. 이름은 홍길동이야 | A: ＇조카＇ ＇홍길동＇의 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>14:07:11</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Q: 홍길동은 8살이야 | A: 사용자의 나이 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>14:07:55</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Q: 길동이는 나랑 무슨 관계지? | A: 길동이는 너의 친구일 수도 있고, 가족일 수도 있어. 하지만 구체적인 정보가 없어서 정확히 어떤 관계인지 모르겠어.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>14:08:16</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Q: 혜교 잘 지낸데? | A: "혜교 잘 지낸데?"라는 질문은 아마도 유명한 배우인 송혜교에 대한 질문일 것 같아요. 하지만 저는 송혜교의 최근 소식이나 상태에 대해 알 수 없어요. 그래서 정확히 답변하기는 어려워요. 다른 질문이 있으면 언제든지 물어봐 주세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>14:08:30</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Q: 엄마 송혜교 잘 지낸데? | A: 엄마의 이름은 송혜교이에요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>14:08:55</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정은? | A: 2026-02-28 오후 2시에 헬스장 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>14:09:14</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Q: 다음 주 일정 있나? | A: 2026-03-02 아침 9시에 가족 모임 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>14:09:41</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Q: 빨간색 칫솔 어딨어? | A: 빨간색 칫솔은 보통 욕실이나 치약과 함께 있는 곳에 있을 가능성이 높아요. 혹시 집안의 다른 곳에 두었는지 찾아보세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>14:09:51</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Q: 칫솔 어딨어? | A: 칫솔은 보통 화장실이나 세면대 근처에 있어요. 가족이 사용하는 칫솔꽂이나 서랍에 있을 수도 있어요. 찾아보세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>14:10:16</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Q: 내가 가지고 있는 모든 물건에 대해 말해봐 | A: 미안하지만, 나는 너가 가지고 있는 모든 물건에 대해 알 수 없어. 하지만 너가 어떤 물건을 가지고 있는지 이야기해주면, 그에 대해 이야기할 수 있어! 예를 들어 장난감, 책, 게임기 같은 것들이 있을 수 있어. 어떤 것들이 있는지 말해줄래?</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>14:10:49</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Q: 서랍에 있는 물건이 뭐야? | A: 서랍에 있는 물건은 다양할 수 있어요. 보통은 연필, 공책, 장난감, 혹은 작은 소품들이 있을 수 있어요. 하지만 정확히 어떤 물건이 있는지는 알 수 없어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>14:11:24</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Q: 서랍은 서랍안에있고 이 서랍은 냉장고에 있어 | A: ＇서랍＇의 위치를 ＇서랍 안＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>14:11:47</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Q: 책상위에 책상위에 책상이 있어 | A: 해당 물건의 위치는 아직 기록되어 있지 않아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>14:12:04</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Q: 책상 위에 연필이 있어 | A: 죄송해요, 해당 기능은 아직 지원하지 않아요. 다른 작업을 요청해주시겠어요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>14:13:32</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Q: 연필은 필통안에 있고 필통은 가방에 있고 가방은 책상위에 있어 | A: ＇연필＇의 위치를 ＇필통 안＇로 저장했어요. ＇필통＇의 위치를 ＇가방＇로 저장했어요. ＇가방＇의 위치를 ＇책상 위＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:33:01</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>14:33:01</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Q: 물통은 거실 책상 위에 있어. | A: ＇물통＇의 위치를 ＇거실 책상 위＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:33:50</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>14:33:50</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Q: 복통약은 점심 식후에 먹어야 돼. | A: ＇복통약＇ 복용 정보를 저장했어요. ＇복통약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:37:37</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>14:37:37</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Q: 근육통약은 저녁 식후에 먹어야 돼. | A: ＇근육통약＇ 복용 정보를 저장했어요. ＇근육통약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:40:28</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>14:40:28</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Q: 생리통약은 저녁 식후에 먹어야 돼. | A: ＇생리통약＇ 복용 정보를 저장했어요. ＇생리통약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:44:10</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>14:44:10</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Q: 두통약은 저녁 식후에 먹어야 돼. | A: ＇두통약＇ 복용 정보를 저장했어요. ＇두통약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:48:55</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>14:48:55</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Q: 두통약은 저녁 식후에 먹어야 돼. | A: ＇두통약＇ 복용 정보는 이미 기록되어 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:50:05</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>14:50:05</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Q: 두통약은 저녁 식후에 먹어야 돼. | A: ＇두통약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:50:32</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>14:50:32</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Q: 내일 오전 8시에 운동약속 있어. | A: 운동약속 일정을 저장했어요. ＇운동약＇ 복용 정보를 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:52:39</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>14:52:39</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Q: 내일 오전 8시에 운동약속 있어. | A: 운동약속 일정을 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:58:03</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>14:58:03</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Q: 내일 오전 8시에 운동약속 있어. | A: 운동약속 일정을 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-02-27 14:58:28</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>14:58:28</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Q: 내일 친구랑 약속 있어. | A: 2026-02-28 에 이미 ＇약속＇ 일정이 있어요. ＇친구랑 약속＇ 일정으로 바꿀까요, 아니면 두 일정을 합칠까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:12:01</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>15:12:01</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Q: 내일 오전 8시에 운동약속 있어. | A: 운동약속 일정을 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:12:30</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>15:12:30</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Q: 내일 일정 말해줘. | A: 2026-02-28 오후 2시에 헬스장 일정, 친구랑 약속 일정이 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:12:53</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>15:12:53</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Q: 우울해 | A: 그런 기분이 드셨군요. 힘든 시간을 겪고 계신 것 같아 마음이 아픕니다. 언제든지 이야기해 주시면 함께할게요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:13:12</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>15:13:12</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Q: 오늘 아침에 미역국 먹었어. | A: 말씀하신 내용을 기억해뒀습니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:16:24</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>15:16:24</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Q: 내일 오전 9시에 밥약속 있어. | A: 밥약속 일정을 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:20:01</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>15:20:01</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Q: 침대 밑에 충전기 있어. | A: 죄송해요, 해당 기능은 아직 지원하지 않아요. 다른 작업을 요청해주시겠어요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:21:17</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>15:21:17</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Q: 내일 오전 9시에 밥약속 있어. | A: 밥약속 일정을 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:29:14</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>15:29:14</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Q: 침대 밑에 충전기 있어. | A: ＇충전기＇의 위치를 ＇침대 밑＇로 저장했어요. ＇침대 밑＇의 위치를 ＇충전기＇로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:35:11</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>15:35:11</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Q: 거실 매트 위에 에어팟 있어. | A: 에어팟의 위치를 거실 매트 위로 저장했어요. 거실 매트의 위치를 에어팟로 저장했어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-02-27 15:41:36</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>15:41:36</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Q: 치약은 화장대에 있고, 칫솔은 화장실에 있어. | A: 치약의 위치를 화장대로 저장했어요. 칫솔의 위치를 화장실로 저장했어요.</t>
         </is>
       </c>
     </row>
